--- a/sgtcis/app/Files/plantilla_materias.xlsx
+++ b/sgtcis/app/Files/plantilla_materias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>nombre</t>
   </si>
@@ -216,28 +216,13 @@
     <t>Décimo</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>id_docente</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>paralelo_a</t>
-  </si>
-  <si>
-    <t>paralelo_b</t>
-  </si>
-  <si>
-    <t>paralelo_c</t>
-  </si>
-  <si>
-    <t>paralelo_d</t>
+    <t>paralelo</t>
+  </si>
+  <si>
+    <t>A,B</t>
   </si>
 </sst>
 </file>
@@ -573,15 +558,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
@@ -590,7 +575,7 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,22 +583,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -624,19 +600,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -647,19 +614,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -670,19 +628,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -693,19 +642,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -716,19 +656,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -739,19 +670,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -762,19 +684,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -785,19 +698,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -808,19 +712,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -831,19 +726,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -854,19 +740,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -877,19 +754,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -900,19 +768,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -923,19 +782,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -946,19 +796,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -969,19 +810,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -992,19 +824,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1015,19 +838,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1038,19 +852,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1061,19 +866,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1084,19 +880,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1107,19 +894,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1130,19 +908,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1153,19 +922,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1176,19 +936,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1199,19 +950,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1222,19 +964,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1245,19 +978,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1268,19 +992,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1291,19 +1006,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1314,19 +1020,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1337,19 +1034,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1360,19 +1048,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1383,19 +1062,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1406,19 +1076,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1429,19 +1090,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1452,19 +1104,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1475,19 +1118,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1498,19 +1132,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1521,19 +1146,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1544,19 +1160,10 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1567,19 +1174,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1590,19 +1188,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1613,19 +1202,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1636,19 +1216,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1659,19 +1230,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1682,19 +1244,10 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1705,19 +1258,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1728,19 +1272,10 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1751,19 +1286,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1774,19 +1300,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1797,19 +1314,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1820,15 +1328,6 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
         <v>67</v>
       </c>
     </row>
